--- a/data/result_data_example/评估结果表示例.xlsx
+++ b/data/result_data_example/评估结果表示例.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_knowledge\research_assistant\python_project\speech_recognition\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_knowledge\research_assistant\python_project\speech_recognition\data\result_data_example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6275FCE-6888-4119-84BA-B24766A211F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F09040-3628-40FF-B3AD-11D269F0F3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>mp3文件名</t>
   </si>
@@ -58,6 +57,18 @@
   </si>
   <si>
     <t>方法2分类结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法1特征值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法2特征值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加权平均分</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -402,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -413,12 +424,15 @@
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.55" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -437,17 +451,26 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
